--- a/Test-Case-iOS-Raiyan.xlsx
+++ b/Test-Case-iOS-Raiyan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SQA_B11\Class 3_TestCase\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF9632F-9E28-4941-97EC-DEC00845B2FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8626AB3-077D-49A7-ABDF-FB5FEC40FFE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -593,6 +593,12 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -609,12 +615,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -623,48 +623,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="64">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="60">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1562,8 +1521,8 @@
   <dimension ref="A1:J982"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1582,10 +1541,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1601,16 +1560,16 @@
       <c r="G1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="46"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1626,15 +1585,14 @@
         <v>0</v>
       </c>
       <c r="I2" s="22">
-        <f>COUNTIF(G7:G49, "PASS")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
@@ -1652,15 +1610,14 @@
         <v>1</v>
       </c>
       <c r="I3" s="23">
-        <f>COUNTIF(G8:G49, "Fail")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
@@ -1683,21 +1640,21 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="48"/>
       <c r="H5" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="25">
         <f>SUM(I2:I4:I3)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1808,7 +1765,7 @@
       <c r="G9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="45" t="s">
         <v>1</v>
       </c>
       <c r="I9" s="41" t="s">
@@ -1816,7 +1773,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="46" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -1835,7 +1792,7 @@
       <c r="G10" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="45" t="s">
         <v>1</v>
       </c>
       <c r="I10" s="41" t="s">
@@ -3190,262 +3147,262 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="H11 H14 H17 H23 H8">
-    <cfRule type="cellIs" dxfId="63" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="65" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11 H14 H17 H23 H8">
-    <cfRule type="cellIs" dxfId="62" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="66" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11 H14 H17 H23 H8">
-    <cfRule type="cellIs" dxfId="61" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="67" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11 H14 H17 H23 H8">
-    <cfRule type="containsBlanks" dxfId="60" priority="68">
+    <cfRule type="containsBlanks" dxfId="56" priority="68">
       <formula>LEN(TRIM(H8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsBlanks" dxfId="56" priority="60">
+    <cfRule type="containsBlanks" dxfId="52" priority="60">
       <formula>LEN(TRIM(G26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="55" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsBlanks" dxfId="52" priority="56">
+    <cfRule type="containsBlanks" dxfId="48" priority="56">
       <formula>LEN(TRIM(G29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsBlanks" dxfId="48" priority="52">
+    <cfRule type="containsBlanks" dxfId="44" priority="52">
       <formula>LEN(TRIM(G35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="47" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="containsBlanks" dxfId="44" priority="48">
+    <cfRule type="containsBlanks" dxfId="40" priority="48">
       <formula>LEN(TRIM(G38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="43" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="containsBlanks" dxfId="40" priority="44">
+    <cfRule type="containsBlanks" dxfId="36" priority="44">
       <formula>LEN(TRIM(G41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="containsBlanks" dxfId="36" priority="40">
+    <cfRule type="containsBlanks" dxfId="32" priority="40">
       <formula>LEN(TRIM(I2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsBlanks" dxfId="32" priority="36">
+    <cfRule type="containsBlanks" dxfId="28" priority="36">
       <formula>LEN(TRIM(I3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsBlanks" dxfId="28" priority="32">
+    <cfRule type="containsBlanks" dxfId="24" priority="32">
       <formula>LEN(TRIM(H7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsBlanks" dxfId="24" priority="28">
+    <cfRule type="containsBlanks" dxfId="20" priority="28">
       <formula>LEN(TRIM(H20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsBlanks" dxfId="20" priority="24">
+    <cfRule type="containsBlanks" dxfId="16" priority="24">
       <formula>LEN(TRIM(G32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="containsBlanks" dxfId="16" priority="20">
+    <cfRule type="containsBlanks" dxfId="12" priority="20">
       <formula>LEN(TRIM(G44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="containsBlanks" dxfId="12" priority="16">
+    <cfRule type="containsBlanks" dxfId="8" priority="16">
       <formula>LEN(TRIM(G47))=0</formula>
     </cfRule>
   </conditionalFormatting>
